--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_24_8.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_24_8.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1411655.41550977</v>
+        <v>-1414211.73133702</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673431</v>
+        <v>603248.493767343</v>
       </c>
     </row>
     <row r="9">
@@ -662,22 +662,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>157.5487985114029</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -713,19 +713,19 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>126.4262622148234</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>274.794425514577</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +756,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -826,13 +826,13 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>48.56582014167346</v>
       </c>
       <c r="G4" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>96.35242040983809</v>
@@ -862,13 +862,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>7.821336383290344</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>52.86642245823226</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -902,19 +902,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>410.9217256534534</v>
+        <v>166.4229244227995</v>
       </c>
       <c r="H5" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,25 +944,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>56.22992883261936</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247809</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,10 +1020,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414548</v>
       </c>
       <c r="T6" t="n">
         <v>190.7165703189231</v>
@@ -1051,22 +1051,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1099,22 +1099,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>10.31366018533136</v>
       </c>
       <c r="W7" t="n">
-        <v>110.2472230560244</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>237.4416321059445</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1193,10 +1193,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>95.53495267724394</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1230,7 +1230,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,10 +1257,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1288,28 +1288,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>24.24542900633159</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,16 +1336,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>180.3170345240024</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1354,7 +1354,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1385,7 +1385,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1433,7 +1433,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1531,22 +1531,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>1.594095449514112</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,22 +1573,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>271.1749250822261</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1768,10 +1768,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>114.5157480654979</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -1780,10 +1780,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>26.13627195705896</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1859,7 +1859,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444129</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2005,7 +2005,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -2017,10 +2017,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2062,10 +2062,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>161.017508575551</v>
       </c>
       <c r="X19" t="n">
-        <v>141.9101287729429</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2096,7 +2096,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2141,7 +2141,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2236,10 +2236,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -2251,13 +2251,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,16 +2284,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>184.2763748162665</v>
       </c>
       <c r="U22" t="n">
-        <v>261.5505590167096</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2302,7 +2302,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2479,16 +2479,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>60.64713141731118</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2713,16 +2713,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -2731,7 +2731,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,16 +2761,16 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>272.8976078885847</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>194.9085394018857</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2968,7 +2968,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>7.069540131683943</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3004,10 +3004,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>39.39795577638954</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3193,19 +3193,19 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E34" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F34" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308918</v>
       </c>
       <c r="G34" t="n">
         <v>141.2394908002291</v>
       </c>
       <c r="H34" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T34" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U34" t="n">
         <v>261.8998268972044</v>
@@ -3250,7 +3250,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X34" t="n">
-        <v>201.425007896998</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y34" t="n">
         <v>194.3000058600551</v>
@@ -3430,7 +3430,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F37" t="n">
         <v>121.1364005308915</v>
@@ -3442,7 +3442,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U37" t="n">
         <v>261.8998268972044</v>
@@ -3661,25 +3661,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C40" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D40" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F40" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G40" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H40" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652585</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.090599218082</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
@@ -3724,7 +3724,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X40" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y40" t="n">
         <v>194.3000058600551</v>
@@ -4141,7 +4141,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F46" t="n">
         <v>121.1364005308915</v>
@@ -4150,10 +4150,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652578</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808193</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T46" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U46" t="n">
         <v>261.8998268972044</v>
@@ -4195,7 +4195,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W46" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X46" t="n">
         <v>201.4250078969974</v>
@@ -4304,28 +4304,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1047.597637439303</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C2" t="n">
-        <v>678.6351204988908</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D2" t="n">
-        <v>678.6351204988908</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E2" t="n">
-        <v>519.4949199823222</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F2" t="n">
-        <v>108.5090151927147</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
         <v>255.3912473912087</v>
@@ -4346,34 +4346,34 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136267</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U2" t="n">
-        <v>2881.634110354001</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="V2" t="n">
-        <v>2550.57122301043</v>
+        <v>2731.767278738087</v>
       </c>
       <c r="W2" t="n">
-        <v>2197.802567740316</v>
+        <v>2731.767278738087</v>
       </c>
       <c r="X2" t="n">
-        <v>1824.336809479236</v>
+        <v>2731.767278738087</v>
       </c>
       <c r="Y2" t="n">
-        <v>1434.197477503424</v>
+        <v>2731.767278738087</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.09613355694</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.643104275813</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.708694614562</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609106</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.936681635991</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G3" t="n">
-        <v>936.5735814686091</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H3" t="n">
-        <v>846.0716871064762</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I3" t="n">
-        <v>827.0643955080141</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986314</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978979</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291644</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.98034951396</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068415</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.46467248647</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.964263962573</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.605821609172</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201688</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695168</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373023</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507439</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275696</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547495</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.071769341962</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577008</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>646.6939999491682</v>
+        <v>380.5970142206074</v>
       </c>
       <c r="C4" t="n">
-        <v>477.7578170212613</v>
+        <v>380.5970142206074</v>
       </c>
       <c r="D4" t="n">
-        <v>477.7578170212613</v>
+        <v>380.5970142206074</v>
       </c>
       <c r="E4" t="n">
-        <v>477.7578170212613</v>
+        <v>380.5970142206074</v>
       </c>
       <c r="F4" t="n">
-        <v>477.7578170212613</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="G4" t="n">
-        <v>310.0549803959803</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H4" t="n">
         <v>163.8377936138381</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962293</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K4" t="n">
-        <v>176.6457242372934</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L4" t="n">
-        <v>332.3555681596507</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M4" t="n">
-        <v>499.7880494588486</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N4" t="n">
-        <v>671.0968864886962</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O4" t="n">
-        <v>809.015235706886</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P4" t="n">
-        <v>907.9662384596446</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q4" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R4" t="n">
-        <v>920.8870058181855</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="S4" t="n">
-        <v>920.8870058181855</v>
+        <v>823.1562087946115</v>
       </c>
       <c r="T4" t="n">
-        <v>920.8870058181855</v>
+        <v>601.3895933641376</v>
       </c>
       <c r="U4" t="n">
-        <v>920.8870058181855</v>
+        <v>601.3895933641376</v>
       </c>
       <c r="V4" t="n">
-        <v>920.8870058181855</v>
+        <v>601.3895933641376</v>
       </c>
       <c r="W4" t="n">
-        <v>920.8870058181855</v>
+        <v>601.3895933641376</v>
       </c>
       <c r="X4" t="n">
-        <v>867.4865790926983</v>
+        <v>601.3895933641376</v>
       </c>
       <c r="Y4" t="n">
-        <v>646.6939999491682</v>
+        <v>380.5970142206074</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2345.167438673965</v>
+        <v>1308.370295943747</v>
       </c>
       <c r="C5" t="n">
-        <v>1976.204921733553</v>
+        <v>939.4077790033352</v>
       </c>
       <c r="D5" t="n">
-        <v>1617.939223126803</v>
+        <v>581.1420803965848</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528558</v>
+        <v>581.1420803965848</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>574.1965796473813</v>
       </c>
       <c r="G5" t="n">
         <v>406.0926155839475</v>
@@ -4562,55 +4562,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218345</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296688</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S5" t="n">
-        <v>3268.807913697436</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T5" t="n">
-        <v>3062.830166081658</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U5" t="n">
-        <v>3062.830166081658</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V5" t="n">
-        <v>2731.767278738087</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W5" t="n">
-        <v>2731.767278738087</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X5" t="n">
-        <v>2731.767278738087</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y5" t="n">
-        <v>2731.767278738087</v>
+        <v>1308.370295943747</v>
       </c>
     </row>
     <row r="6">
@@ -4620,70 +4620,70 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811093</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999823</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D6" t="n">
-        <v>618.156415538731</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332755</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601605</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927786</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064616</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218345</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228009</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158137</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
         <v>1317.519490266131</v>
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>214.4252100145766</v>
+        <v>531.2215399677106</v>
       </c>
       <c r="C7" t="n">
-        <v>214.4252100145766</v>
+        <v>531.2215399677106</v>
       </c>
       <c r="D7" t="n">
-        <v>214.4252100145766</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="E7" t="n">
-        <v>66.51211643218345</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F7" t="n">
-        <v>66.51211643218345</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218345</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218345</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218345</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962293</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K7" t="n">
-        <v>176.6457242372934</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L7" t="n">
-        <v>332.3555681596507</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M7" t="n">
-        <v>499.7880494588486</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N7" t="n">
-        <v>671.0968864886962</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O7" t="n">
-        <v>809.015235706886</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P7" t="n">
-        <v>907.9662384596446</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q7" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R7" t="n">
-        <v>920.8870058181855</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="S7" t="n">
-        <v>729.2011216450119</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="T7" t="n">
-        <v>507.4345062145379</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="U7" t="n">
-        <v>507.4345062145379</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="V7" t="n">
-        <v>507.4345062145379</v>
+        <v>820.6387100046711</v>
       </c>
       <c r="W7" t="n">
-        <v>396.0736748448163</v>
+        <v>531.2215399677106</v>
       </c>
       <c r="X7" t="n">
-        <v>396.0736748448163</v>
+        <v>531.2215399677106</v>
       </c>
       <c r="Y7" t="n">
-        <v>396.0736748448163</v>
+        <v>531.2215399677106</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1418.660964416653</v>
+        <v>1661.795585684488</v>
       </c>
       <c r="C8" t="n">
-        <v>1049.698447476242</v>
+        <v>1292.833068744076</v>
       </c>
       <c r="D8" t="n">
-        <v>809.8584150459947</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="E8" t="n">
-        <v>424.0701624477504</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F8" t="n">
-        <v>417.1246616985469</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J8" t="n">
-        <v>255.391247391209</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810556</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T8" t="n">
-        <v>3119.628073993394</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="U8" t="n">
-        <v>2866.09759726723</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="V8" t="n">
-        <v>2535.034709923659</v>
+        <v>2535.034709923658</v>
       </c>
       <c r="W8" t="n">
-        <v>2182.266054653545</v>
+        <v>2535.034709923658</v>
       </c>
       <c r="X8" t="n">
-        <v>1808.800296392465</v>
+        <v>2438.534757724422</v>
       </c>
       <c r="Y8" t="n">
-        <v>1418.660964416653</v>
+        <v>2048.39542574861</v>
       </c>
     </row>
     <row r="9">
@@ -4878,16 +4878,16 @@
         <v>85.51940803064545</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158128</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>510.7590362090546</v>
+        <v>427.6414683149992</v>
       </c>
       <c r="C10" t="n">
-        <v>510.7590362090546</v>
+        <v>258.7052853870923</v>
       </c>
       <c r="D10" t="n">
-        <v>360.6423967967188</v>
+        <v>258.7052853870923</v>
       </c>
       <c r="E10" t="n">
-        <v>212.7293032143257</v>
+        <v>258.7052853870923</v>
       </c>
       <c r="F10" t="n">
-        <v>212.7293032143257</v>
+        <v>258.7052853870923</v>
       </c>
       <c r="G10" t="n">
-        <v>212.7293032143257</v>
+        <v>91.00244876181128</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218343</v>
+        <v>91.00244876181128</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962291</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K10" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L10" t="n">
-        <v>332.3555681596507</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588485</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886961</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O10" t="n">
-        <v>809.015235706886</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P10" t="n">
-        <v>907.9662384596446</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R10" t="n">
-        <v>920.8870058181855</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="S10" t="n">
-        <v>920.8870058181855</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="T10" t="n">
-        <v>920.8870058181855</v>
+        <v>609.2899331452389</v>
       </c>
       <c r="U10" t="n">
-        <v>738.7485871070719</v>
+        <v>609.2899331452389</v>
       </c>
       <c r="V10" t="n">
-        <v>738.7485871070719</v>
+        <v>609.2899331452389</v>
       </c>
       <c r="W10" t="n">
-        <v>738.7485871070719</v>
+        <v>609.2899331452389</v>
       </c>
       <c r="X10" t="n">
-        <v>510.7590362090546</v>
+        <v>609.2899331452389</v>
       </c>
       <c r="Y10" t="n">
-        <v>510.7590362090546</v>
+        <v>609.2899331452389</v>
       </c>
     </row>
     <row r="11">
@@ -5021,16 +5021,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H11" t="n">
         <v>93.81666304797187</v>
@@ -5039,19 +5039,19 @@
         <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
         <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
         <v>3640.422291068009</v>
@@ -5081,7 +5081,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C12" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D12" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G12" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>2231.588527385791</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>2418.621364762389</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>2913.946970978148</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>3511.3254586047</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N12" t="n">
-        <v>4138.923422159307</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O12" t="n">
-        <v>4690.833152398593</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P12" t="n">
-        <v>4690.833152398593</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S12" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T12" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U12" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V12" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W12" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X12" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y12" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>803.2707707770319</v>
+        <v>931.4710609784063</v>
       </c>
       <c r="C13" t="n">
-        <v>634.334587849125</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="D13" t="n">
-        <v>632.7243904253734</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E13" t="n">
-        <v>484.8112968429803</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>2106.003314093041</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1851.318825887154</v>
       </c>
       <c r="W13" t="n">
-        <v>1433.701365648819</v>
+        <v>1561.901655850193</v>
       </c>
       <c r="X13" t="n">
-        <v>1205.711814750802</v>
+        <v>1333.912104952176</v>
       </c>
       <c r="Y13" t="n">
-        <v>984.9192356072716</v>
+        <v>1113.119525808646</v>
       </c>
     </row>
     <row r="14">
@@ -5267,34 +5267,34 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852255</v>
@@ -5312,13 +5312,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5352,25 +5352,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>2299.457522348532</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="O15" t="n">
-        <v>2299.457522348532</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P15" t="n">
         <v>2319.799627685893</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>916.3099000622298</v>
+        <v>956.9553291057244</v>
       </c>
       <c r="C16" t="n">
-        <v>747.3737171343229</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="D16" t="n">
-        <v>631.7012443408906</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279806</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853365</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580264</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832666</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S16" t="n">
-        <v>2379.917379832666</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T16" t="n">
-        <v>2379.917379832666</v>
+        <v>2420.562808876161</v>
       </c>
       <c r="U16" t="n">
-        <v>2090.842153176864</v>
+        <v>2131.487582220359</v>
       </c>
       <c r="V16" t="n">
-        <v>1836.157664970978</v>
+        <v>1876.803094014472</v>
       </c>
       <c r="W16" t="n">
-        <v>1546.740494934017</v>
+        <v>1587.385923977512</v>
       </c>
       <c r="X16" t="n">
-        <v>1318.750944036</v>
+        <v>1359.396373079494</v>
       </c>
       <c r="Y16" t="n">
-        <v>1097.958364892469</v>
+        <v>1138.603793935964</v>
       </c>
     </row>
     <row r="17">
@@ -5495,34 +5495,34 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168604</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362679</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J17" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
         <v>2950.898526355937</v>
@@ -5589,13 +5589,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
         <v>1074.481071167373</v>
@@ -5604,13 +5604,13 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1671.859558793925</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>781.3544215660705</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C19" t="n">
-        <v>612.4182386381636</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D19" t="n">
-        <v>612.4182386381636</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E19" t="n">
-        <v>464.5051450557705</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F19" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S19" t="n">
-        <v>2379.917379832663</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>2160.315914855604</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>1871.240688199802</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V19" t="n">
-        <v>1616.556199993915</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W19" t="n">
-        <v>1327.139029956954</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X19" t="n">
-        <v>1183.79546553984</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y19" t="n">
-        <v>963.0028863963103</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="20">
@@ -5732,28 +5732,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5762,10 +5762,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5789,10 +5789,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5826,31 +5826,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1074.481071167373</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1702.079034721979</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>2253.988764961266</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>538.7363435406111</v>
+        <v>956.9553291057244</v>
       </c>
       <c r="C22" t="n">
-        <v>538.7363435406111</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="D22" t="n">
-        <v>388.6197041282753</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E22" t="n">
-        <v>240.7066105458822</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F22" t="n">
-        <v>93.81666304797187</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2010.924793147904</v>
       </c>
       <c r="U22" t="n">
-        <v>1713.268596655246</v>
+        <v>1721.849566492102</v>
       </c>
       <c r="V22" t="n">
-        <v>1458.584108449359</v>
+        <v>1467.165078286215</v>
       </c>
       <c r="W22" t="n">
-        <v>1169.166938412398</v>
+        <v>1177.747908249255</v>
       </c>
       <c r="X22" t="n">
-        <v>941.1773875143809</v>
+        <v>1177.747908249255</v>
       </c>
       <c r="Y22" t="n">
-        <v>720.3848083708508</v>
+        <v>956.9553291057244</v>
       </c>
     </row>
     <row r="23">
@@ -5975,10 +5975,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
@@ -6023,13 +6023,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6075,19 +6075,19 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1074.481071167373</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1702.079034721979</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,19 +6121,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>763.7541388327643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>594.8179559048574</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>444.7013164925216</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>296.7882229101285</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>296.7882229101285</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
         <v>235.5284942057738</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>945.402603663004</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6200,34 +6200,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6257,19 +6257,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6309,22 +6309,22 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>680.0291294438176</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>929.7309773356195</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C28" t="n">
-        <v>929.7309773356195</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D28" t="n">
-        <v>779.6143379232838</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6409,25 +6409,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2379.917379832663</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>2104.263230450254</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1849.578742244367</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W28" t="n">
-        <v>1560.161572207407</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X28" t="n">
-        <v>1332.172021309389</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y28" t="n">
-        <v>1111.379442165859</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="29">
@@ -6500,10 +6500,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6543,25 +6543,25 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>740.5562989961525</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1337.934786622704</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1337.934786622704</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1889.844516861991</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2313.467666357059</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2546.729326731942</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1023.721406539404</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C31" t="n">
-        <v>854.7852236114967</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D31" t="n">
-        <v>704.6685841991609</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E31" t="n">
-        <v>556.7554906167678</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F31" t="n">
-        <v>409.8655431188574</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
-        <v>242.6694438337374</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>100.9576126759355</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6643,28 +6643,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U31" t="n">
-        <v>1977.461080510508</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V31" t="n">
-        <v>1722.776592304621</v>
+        <v>1715.635642676658</v>
       </c>
       <c r="W31" t="n">
-        <v>1433.359422267661</v>
+        <v>1426.218472639697</v>
       </c>
       <c r="X31" t="n">
-        <v>1205.369871369643</v>
+        <v>1198.22892174168</v>
       </c>
       <c r="Y31" t="n">
-        <v>1205.369871369643</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="32">
@@ -6686,22 +6686,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6786,13 +6786,13 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1074.481071167373</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
         <v>2553.061288060775</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656822</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150027</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942658</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580114</v>
       </c>
       <c r="G34" t="n">
         <v>268.5553036345476</v>
@@ -6923,7 +6923,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6932,13 +6932,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -7014,28 +7014,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>924.8344286397182</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>924.8344286397182</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1552.432392194325</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.957531531932</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656814</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150019</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E37" t="n">
-        <v>533.581456494265</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580114</v>
       </c>
       <c r="G37" t="n">
         <v>268.5553036345476</v>
@@ -7090,16 +7090,16 @@
         <v>151.373419438402</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>198.0944824954149</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M37" t="n">
         <v>1344.317444979286</v>
@@ -7117,28 +7117,28 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R37" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T37" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U37" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.685508594054</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W37" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X37" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y37" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="38">
@@ -7169,7 +7169,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
         <v>378.192580311172</v>
@@ -7254,22 +7254,22 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>740.5562989961525</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>740.5562989961525</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1368.154262550759</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7306,19 +7306,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.957531531933</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656823</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150028</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942659</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580111</v>
       </c>
       <c r="G40" t="n">
         <v>268.5553036345476</v>
@@ -7357,22 +7357,22 @@
         <v>2596.781734931273</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T40" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W40" t="n">
-        <v>1483.798285518752</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y40" t="n">
         <v>1084.076049400516</v>
@@ -7409,10 +7409,10 @@
         <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7491,25 +7491,25 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>740.5562989961525</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>740.5562989961525</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1368.154262550759</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1920.063992790046</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2343.687142285114</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319317</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656811</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150016</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942648</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580113</v>
+        <v>411.221455958012</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345482</v>
       </c>
       <c r="H43" t="n">
         <v>151.373419438402</v>
@@ -7570,49 +7570,49 @@
         <v>198.094482495415</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380724</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311318</v>
+        <v>898.2659412311322</v>
       </c>
       <c r="M43" t="n">
-        <v>1344.317444979285</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N43" t="n">
-        <v>1785.769117656413</v>
+        <v>1785.769117656414</v>
       </c>
       <c r="O43" t="n">
-        <v>2179.340199382517</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P43" t="n">
-        <v>2496.057455973195</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q43" t="n">
-        <v>2639.297491717214</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T43" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.685508594054</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W43" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y43" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="44">
@@ -7731,19 +7731,19 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>716.6687843969308</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319325</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656819</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942658</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580118</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
@@ -7804,13 +7804,13 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J46" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380732</v>
+        <v>483.8255460380731</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311327</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -22550,19 +22550,19 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>224.3815715608588</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -22601,19 +22601,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>52.95783295555788</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22702,10 +22702,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -22714,13 +22714,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -22753,22 +22753,22 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>181.9476889481516</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>172.8432329308049</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -23419,16 +23419,16 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>147.0213775686983</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922705</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23464,19 +23464,19 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>15.00954930701801</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.5229983365887</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23656,10 +23656,10 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>34.09972495271445</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23668,7 +23668,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23698,13 +23698,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>191.2691783702293</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23893,7 +23893,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -23905,10 +23905,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23950,10 +23950,10 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>125.50548976104</v>
       </c>
       <c r="X19" t="n">
-        <v>83.79952661609423</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24124,10 +24124,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24139,13 +24139,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24178,10 +24178,10 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>33.12907551102174</v>
       </c>
       <c r="U22" t="n">
-        <v>24.63391537253455</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24190,7 +24190,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24367,16 +24367,16 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>104.8770068749577</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -24409,10 +24409,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24601,16 +24601,16 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24619,7 +24619,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,16 +24649,16 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>13.28686650065941</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24856,7 +24856,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>74.1962961868816</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24892,10 +24892,10 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>212.7396875474385</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1049363.273544795</v>
+        <v>1049363.273544796</v>
       </c>
     </row>
     <row r="3">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1265715.884679806</v>
+        <v>1265715.884679805</v>
       </c>
     </row>
     <row r="7">
@@ -26320,7 +26320,7 @@
         <v>164208.3539728567</v>
       </c>
       <c r="E2" t="n">
-        <v>161429.3199380012</v>
+        <v>161429.3199380013</v>
       </c>
       <c r="F2" t="n">
         <v>161429.3199380013</v>
@@ -26338,13 +26338,13 @@
         <v>161429.3199380012</v>
       </c>
       <c r="K2" t="n">
-        <v>161429.3199380013</v>
+        <v>161429.3199380012</v>
       </c>
       <c r="L2" t="n">
-        <v>164208.3539728569</v>
+        <v>164208.3539728567</v>
       </c>
       <c r="M2" t="n">
-        <v>164208.3539728567</v>
+        <v>164208.3539728568</v>
       </c>
       <c r="N2" t="n">
         <v>164208.3539728568</v>
@@ -26353,7 +26353,7 @@
         <v>164208.3539728568</v>
       </c>
       <c r="P2" t="n">
-        <v>164208.3539728567</v>
+        <v>164208.3539728568</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073549</v>
+        <v>325412.4618073554</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972776</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>19427.71799363178</v>
+        <v>19427.71799363177</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551178</v>
+        <v>85055.02793551187</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,31 +26415,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>11387.33216691481</v>
+        <v>11387.33216691498</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.74410405244</v>
+        <v>93596.74410405257</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.7441040525</v>
+        <v>93596.74410405257</v>
       </c>
       <c r="E4" t="n">
-        <v>15436.64000687972</v>
+        <v>15436.64000687966</v>
       </c>
       <c r="F4" t="n">
-        <v>15436.64000687972</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="G4" t="n">
-        <v>15436.64000687971</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="H4" t="n">
-        <v>15436.64000687968</v>
+        <v>15436.64000687969</v>
       </c>
       <c r="I4" t="n">
         <v>15436.64000687967</v>
       </c>
       <c r="J4" t="n">
-        <v>15436.64000687966</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="K4" t="n">
         <v>15436.64000687967</v>
@@ -26448,16 +26448,16 @@
         <v>23427.49926997313</v>
       </c>
       <c r="M4" t="n">
-        <v>23427.49926997314</v>
+        <v>23427.49926997313</v>
       </c>
       <c r="N4" t="n">
-        <v>23427.49926997312</v>
+        <v>23427.49926997313</v>
       </c>
       <c r="O4" t="n">
         <v>23427.49926997313</v>
       </c>
       <c r="P4" t="n">
-        <v>23427.49926997314</v>
+        <v>23427.49926997313</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1312664.305740444</v>
+        <v>-1313024.388756161</v>
       </c>
       <c r="C6" t="n">
-        <v>-37322.33069258906</v>
+        <v>-37322.33069258914</v>
       </c>
       <c r="D6" t="n">
-        <v>-37322.33069258912</v>
+        <v>-37322.33069258914</v>
       </c>
       <c r="E6" t="n">
-        <v>-280542.3117001406</v>
+        <v>-280577.0496255766</v>
       </c>
       <c r="F6" t="n">
-        <v>44870.15010721442</v>
+        <v>44835.41218177884</v>
       </c>
       <c r="G6" t="n">
-        <v>44870.15010721439</v>
+        <v>44835.41218177875</v>
       </c>
       <c r="H6" t="n">
-        <v>44870.15010721436</v>
+        <v>44835.41218177867</v>
       </c>
       <c r="I6" t="n">
-        <v>44870.15010721439</v>
+        <v>44835.41218177869</v>
       </c>
       <c r="J6" t="n">
-        <v>-172661.0522900632</v>
+        <v>-172695.7902154988</v>
       </c>
       <c r="K6" t="n">
-        <v>44870.15010721447</v>
+        <v>44835.41218177875</v>
       </c>
       <c r="L6" t="n">
-        <v>18189.02085533654</v>
+        <v>18189.02085533639</v>
       </c>
       <c r="M6" t="n">
-        <v>-47438.28908654361</v>
+        <v>-47438.28908654363</v>
       </c>
       <c r="N6" t="n">
-        <v>37616.73884896829</v>
+        <v>37616.73884896823</v>
       </c>
       <c r="O6" t="n">
+        <v>37616.73884896823</v>
+      </c>
+      <c r="P6" t="n">
         <v>37616.73884896826</v>
-      </c>
-      <c r="P6" t="n">
-        <v>37616.73884896821</v>
       </c>
     </row>
   </sheetData>
@@ -26692,19 +26692,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26713,19 +26713,19 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O2" t="n">
         <v>24.28464749203971</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="3">
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26914,7 +26914,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483752</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,7 +27151,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27433,7 +27433,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>124.5689097440786</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27546,7 +27546,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>96.85522788125778</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27582,7 +27582,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -27591,16 +27591,16 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27622,13 +27622,13 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>244.4988012306539</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -27664,25 +27664,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>52.95783295555645</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27713,7 +27713,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>-6.821210263296962e-13</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27771,22 +27771,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
@@ -27819,22 +27819,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>241.8239831384966</v>
       </c>
       <c r="W7" t="n">
-        <v>176.2757752805666</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27850,25 +27850,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>117.2414095147385</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27913,10 +27913,10 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>274.1961480012251</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28008,28 +28008,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>72.1069914035065</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,16 +28056,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>105.8948036816105</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28074,7 +28074,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28105,7 +28105,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28153,7 +28153,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -28308,7 +28308,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>2.250406124539427e-12</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -28521,7 +28521,7 @@
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>3.758651504979533e-12</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
@@ -28579,7 +28579,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>8.682195192673605e-13</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28816,7 +28816,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -28861,7 +28861,7 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="41">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
   </sheetData>
@@ -31039,7 +31039,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
         <v>44.86703772844668</v>
@@ -31048,40 +31048,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,46 +31118,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31200,43 +31200,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
         <v>0.1071911508780295</v>
@@ -31276,7 +31276,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H5" t="n">
         <v>44.86703772844668</v>
@@ -31285,40 +31285,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R5" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T5" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,46 +31355,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q6" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31437,43 +31437,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P7" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U7" t="n">
         <v>0.1071911508780295</v>
@@ -31513,7 +31513,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
         <v>44.86703772844668</v>
@@ -31522,40 +31522,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,46 +31592,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138789</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31674,43 +31674,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
         <v>0.1071911508780295</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>326.7634969305189</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>405.637736314577</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>359.7096985496632</v>
       </c>
       <c r="O15" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>154.5219885631796</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32233,34 +32233,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,10 +32303,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>101.3076196007749</v>
@@ -32315,37 +32315,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>369.1789913099997</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236497</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,10 +32540,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>101.3076196007749</v>
@@ -32552,37 +32552,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>399.0581126127094</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32725,7 +32725,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.820449923651</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
         <v>593.8732233669223</v>
@@ -32795,22 +32795,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>301.6445156724565</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -32947,7 +32947,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L26" t="n">
         <v>867.846407116256</v>
@@ -33029,25 +33029,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>240.4469701760392</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33263,7 +33263,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
@@ -33272,19 +33272,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>152.0754244981388</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33418,7 +33418,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
         <v>699.5441750817575</v>
@@ -33506,16 +33506,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>639.4703354763103</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33655,7 +33655,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K35" t="n">
         <v>699.5441750817575</v>
@@ -33734,7 +33734,7 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
         <v>475.1391886422585</v>
@@ -33743,22 +33743,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>452.8027404478649</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33889,10 +33889,10 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K38" t="n">
         <v>699.5441750817575</v>
@@ -33974,25 +33974,25 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>675.952017818248</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
@@ -34129,7 +34129,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K41" t="n">
         <v>699.5441750817575</v>
@@ -34138,7 +34138,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175679</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
         <v>981.2715114159425</v>
@@ -34211,28 +34211,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>314.4610577451606</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34384,13 +34384,13 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.820449923651</v>
       </c>
       <c r="Q44" t="n">
         <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
         <v>125.31755462929</v>
@@ -34451,22 +34451,22 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>277.4567226539314</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,25 +34775,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
         <v>159.2338966127272</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>11.94217529034292</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K4" t="n">
-        <v>99.3038931996671</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L4" t="n">
-        <v>157.2826706286438</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M4" t="n">
         <v>169.1237184840382</v>
       </c>
       <c r="N4" t="n">
-        <v>173.0392293230784</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O4" t="n">
-        <v>139.3114638567574</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P4" t="n">
-        <v>99.95050783106939</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q4" t="n">
-        <v>13.05128016014223</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N5" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P5" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,25 +35012,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
         <v>159.2338966127272</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>11.94217529034292</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K7" t="n">
-        <v>99.3038931996671</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L7" t="n">
-        <v>157.2826706286438</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M7" t="n">
         <v>169.1237184840382</v>
       </c>
       <c r="N7" t="n">
-        <v>173.0392293230784</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O7" t="n">
-        <v>139.3114638567574</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P7" t="n">
-        <v>99.95050783106939</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q7" t="n">
-        <v>13.05128016014223</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,25 +35249,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340047</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
         <v>159.2338966127272</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>11.94217529034292</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K10" t="n">
-        <v>99.3038931996671</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L10" t="n">
-        <v>157.2826706286438</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M10" t="n">
         <v>169.1237184840382</v>
       </c>
       <c r="N10" t="n">
-        <v>173.0392293230784</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O10" t="n">
-        <v>139.3114638567574</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P10" t="n">
-        <v>99.95050783106939</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q10" t="n">
-        <v>13.05128016014223</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>188.9220579561599</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>274.2960242312436</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,7 +35720,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35729,22 +35729,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>228.3679864663299</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>20.54758114884936</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060492</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,7 +35957,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35966,22 +35966,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>226.5827468655553</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683802</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,7 +36194,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36203,25 +36203,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>265.0837051983791</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36373,7 +36373,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
         <v>371.5675334924728</v>
@@ -36443,22 +36443,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>159.048271228012</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36595,7 +36595,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L26" t="n">
         <v>632.0799921462688</v>
@@ -36677,25 +36677,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>101.892590396165</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36911,7 +36911,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
@@ -36920,19 +36920,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>6.39592053417488</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37066,7 +37066,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
         <v>479.454324036777</v>
@@ -37154,16 +37154,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>508.128623392977</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37245,7 +37245,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q34" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,7 +37303,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K35" t="n">
         <v>479.454324036777</v>
@@ -37382,7 +37382,7 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
@@ -37391,22 +37391,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>310.2064960034205</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37537,10 +37537,10 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K38" t="n">
         <v>479.454324036777</v>
@@ -37622,25 +37622,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>533.3557733738036</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>105.331130754993</v>
+        <v>105.3311307549931</v>
       </c>
       <c r="K40" t="n">
         <v>288.6172359016746</v>
@@ -37719,7 +37719,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,7 +37777,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K41" t="n">
         <v>479.454324036777</v>
@@ -37786,7 +37786,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
         <v>751.8584478193516</v>
@@ -37859,28 +37859,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>174.4792836591391</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38032,13 +38032,13 @@
         <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q44" t="n">
         <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38099,22 +38099,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>138.9023428740572</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38175,25 +38175,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M46" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N46" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O46" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P46" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q46" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
